--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekty\Studia\semestr_6\si\lab\csp\java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekty\Studia\semestr_6\si\lab\csp\java\si-csp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C9D3B2-6BC1-4C4C-B5FD-13CB340E1DAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41468163-311D-4E0C-9FB4-A42DDB5F88E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29865" yWindow="1395" windowWidth="21570" windowHeight="11340" xr2:uid="{E7ECEDAF-62C6-4946-A2D2-0B96DBDC90A7}"/>
   </bookViews>
@@ -888,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA933FD-6740-4495-A5F4-3787DA649E3A}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,9 +903,11 @@
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -923,7 +925,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
@@ -949,7 +951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -977,8 +979,16 @@
       <c r="I3">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f>C3/E3</f>
+        <v>2.36</v>
+      </c>
+      <c r="L3">
+        <f>E3/I3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1006,8 +1016,16 @@
       <c r="I4">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" ref="K4:K19" si="0">C4/E4</f>
+        <v>2.031055900621118</v>
+      </c>
+      <c r="L4">
+        <f>E4/I4</f>
+        <v>5.193548387096774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1035,8 +1053,16 @@
       <c r="I5">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>2.15</v>
+      </c>
+      <c r="L5">
+        <f>E5/I5</f>
+        <v>1.6326530612244898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1064,8 +1090,16 @@
       <c r="I6">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>3.8338028169014087</v>
+      </c>
+      <c r="L6">
+        <f>E6/I6</f>
+        <v>7.8888888888888893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1127,16 @@
       <c r="I7">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>2.7258912916423146</v>
+      </c>
+      <c r="L7">
+        <f>E7/I7</f>
+        <v>25.53731343283582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1122,8 +1164,16 @@
       <c r="I8">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>2.2138364779874213</v>
+      </c>
+      <c r="L8">
+        <f>E8/I8</f>
+        <v>1.9390243902439024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1151,8 +1201,16 @@
       <c r="I9">
         <v>142</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>5.5418525321437944</v>
+      </c>
+      <c r="L9">
+        <f>E9/I9</f>
+        <v>26.838028169014084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1180,8 +1238,16 @@
       <c r="I10">
         <v>187</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>3.6904508493337307</v>
+      </c>
+      <c r="L10">
+        <f>E10/I10</f>
+        <v>125.6096256684492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1209,8 +1275,16 @@
       <c r="I11">
         <v>532</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>2.8266416312778575</v>
+      </c>
+      <c r="L11">
+        <f>E11/I11</f>
+        <v>107.11654135338345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1238,8 +1312,16 @@
       <c r="I12">
         <v>40525</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>3.4577702094837695</v>
+      </c>
+      <c r="L12">
+        <f>E12/I12</f>
+        <v>254.40288710672425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1267,8 +1349,16 @@
       <c r="I13">
         <v>24181</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>17.703790846708735</v>
+      </c>
+      <c r="L13">
+        <f>E13/I13</f>
+        <v>21.882593771969727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1296,8 +1386,16 @@
       <c r="I14">
         <v>27054</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>3.1745298570325233</v>
+      </c>
+      <c r="L14">
+        <f>E14/I14</f>
+        <v>88.682523841206475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1325,8 +1423,16 @@
       <c r="I15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>2709854.829901522</v>
+      </c>
+      <c r="L15">
+        <f>E15/I15</f>
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1348,8 +1454,16 @@
       <c r="I16">
         <v>591495</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>E16/I16</f>
+        <v>774.35744511787925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1371,8 +1485,16 @@
       <c r="I17">
         <v>12106524</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>E17/I17</f>
+        <v>1.448836429019593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1394,8 +1516,16 @@
       <c r="I18">
         <v>31290</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>E18/I18</f>
+        <v>8.6148609779482257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1411,8 +1541,16 @@
       <c r="I19">
         <v>4977377</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19">
+        <f>E19/I19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1428,8 +1566,12 @@
       <c r="I20">
         <v>4472736</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f>E20/I20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1589,7 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1473,7 +1615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -1501,8 +1643,16 @@
       <c r="I26">
         <v>81</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <f>C26/G26</f>
+        <v>1.9545454545454546</v>
+      </c>
+      <c r="L26">
+        <f>E26/I26</f>
+        <v>1.4197530864197532</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -1530,8 +1680,16 @@
       <c r="I27">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <f t="shared" ref="K27:K40" si="1">C27/G27</f>
+        <v>2.1756756756756759</v>
+      </c>
+      <c r="L27">
+        <f>E27/I27</f>
+        <v>1.3275862068965518</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -1559,8 +1717,16 @@
       <c r="I28">
         <v>164</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>1.5751295336787565</v>
+      </c>
+      <c r="L28">
+        <f>E28/I28</f>
+        <v>0.84756097560975607</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -1588,8 +1754,16 @@
       <c r="I29">
         <v>311</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>3.2315521628498729</v>
+      </c>
+      <c r="L29">
+        <f>E29/I29</f>
+        <v>1.9742765273311897</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -1617,8 +1791,16 @@
       <c r="I30">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>1.6707317073170731</v>
+      </c>
+      <c r="L30">
+        <f>E30/I30</f>
+        <v>1.1176470588235294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -1646,8 +1828,16 @@
       <c r="I31">
         <v>6227</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>9.8429717180244829</v>
+      </c>
+      <c r="L31">
+        <f>E31/I31</f>
+        <v>4.5124458005460095</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -1675,8 +1865,16 @@
       <c r="I32">
         <v>1168</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>32.330947136563879</v>
+      </c>
+      <c r="L32">
+        <f>E32/I32</f>
+        <v>12.629280821917808</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -1704,8 +1902,16 @@
       <c r="I33">
         <v>7053</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>1.5924799837843315</v>
+      </c>
+      <c r="L33">
+        <f>E33/I33</f>
+        <v>0.87040975471430593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -1733,8 +1939,16 @@
       <c r="I34">
         <v>4455</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>7.6017519161582978</v>
+      </c>
+      <c r="L34">
+        <f>E34/I34</f>
+        <v>3.8588103254769921</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -1762,8 +1976,16 @@
       <c r="I35">
         <v>705</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>6.7287184284377926</v>
+      </c>
+      <c r="L35">
+        <f>E35/I35</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -1791,8 +2013,16 @@
       <c r="I36">
         <v>145408</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>0.63491578562520967</v>
+      </c>
+      <c r="L36">
+        <f>E36/I36</f>
+        <v>0.38257867517605632</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -1820,8 +2050,16 @@
       <c r="I37">
         <v>98099</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>2.8140452472395583</v>
+      </c>
+      <c r="L37">
+        <f>E37/I37</f>
+        <v>1.42281776572646</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -1849,8 +2087,16 @@
       <c r="I38">
         <v>402902</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>27.318547240868696</v>
+      </c>
+      <c r="L38">
+        <f>E38/I38</f>
+        <v>8.4136018188045725</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -1878,8 +2124,16 @@
       <c r="I39">
         <v>4955527</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>9.4901052368669205</v>
+      </c>
+      <c r="L39">
+        <f>E39/I39</f>
+        <v>5.3022863158650937</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -1906,6 +2160,14 @@
       </c>
       <c r="I40">
         <v>49537</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>4.9124037564162393</v>
+      </c>
+      <c r="L40">
+        <f>E40/I40</f>
+        <v>3.21101398954317</v>
       </c>
     </row>
   </sheetData>
